--- a/73160/bargraph/73160_Cellline_classify_4_nodes_K_6.xlsx
+++ b/73160/bargraph/73160_Cellline_classify_4_nodes_K_6.xlsx
@@ -31,196 +31,196 @@
     <t>K_labels</t>
   </si>
   <si>
+    <t>GSM1887890</t>
+  </si>
+  <si>
+    <t>GSM1887894</t>
+  </si>
+  <si>
+    <t>GSM1887927</t>
+  </si>
+  <si>
+    <t>GSM1887903</t>
+  </si>
+  <si>
+    <t>GSM1887930</t>
+  </si>
+  <si>
+    <t>GSM1887936</t>
+  </si>
+  <si>
+    <t>GSM1887935</t>
+  </si>
+  <si>
+    <t>GSM1887905</t>
+  </si>
+  <si>
+    <t>GSM1887912</t>
+  </si>
+  <si>
+    <t>GSM1887955</t>
+  </si>
+  <si>
+    <t>GSM1887943</t>
+  </si>
+  <si>
+    <t>GSM1887929</t>
+  </si>
+  <si>
+    <t>GSM1887891</t>
+  </si>
+  <si>
+    <t>GSM1887959</t>
+  </si>
+  <si>
+    <t>GSM1887919</t>
+  </si>
+  <si>
+    <t>GSM1887947</t>
+  </si>
+  <si>
+    <t>GSM1887945</t>
+  </si>
+  <si>
+    <t>GSM1887934</t>
+  </si>
+  <si>
+    <t>GSM1887941</t>
+  </si>
+  <si>
+    <t>GSM1887902</t>
+  </si>
+  <si>
     <t>GSM1887922</t>
   </si>
   <si>
+    <t>GSM1887904</t>
+  </si>
+  <si>
     <t>GSM1887889</t>
   </si>
   <si>
-    <t>GSM1887904</t>
-  </si>
-  <si>
-    <t>GSM1887902</t>
-  </si>
-  <si>
-    <t>GSM1887941</t>
-  </si>
-  <si>
-    <t>GSM1887929</t>
-  </si>
-  <si>
-    <t>GSM1887930</t>
-  </si>
-  <si>
-    <t>GSM1887912</t>
-  </si>
-  <si>
-    <t>GSM1887935</t>
-  </si>
-  <si>
-    <t>GSM1887936</t>
-  </si>
-  <si>
-    <t>GSM1887905</t>
-  </si>
-  <si>
-    <t>GSM1887943</t>
-  </si>
-  <si>
-    <t>GSM1887903</t>
-  </si>
-  <si>
-    <t>GSM1887959</t>
-  </si>
-  <si>
-    <t>GSM1887955</t>
-  </si>
-  <si>
-    <t>GSM1887891</t>
+    <t>GSM1887940</t>
+  </si>
+  <si>
+    <t>GSM1887916</t>
+  </si>
+  <si>
+    <t>GSM1887960</t>
+  </si>
+  <si>
+    <t>GSM1887901</t>
+  </si>
+  <si>
+    <t>GSM1887925</t>
+  </si>
+  <si>
+    <t>GSM1887893</t>
+  </si>
+  <si>
+    <t>GSM1887892</t>
+  </si>
+  <si>
+    <t>GSM1887944</t>
+  </si>
+  <si>
+    <t>GSM1887887</t>
+  </si>
+  <si>
+    <t>GSM1887950</t>
   </si>
   <si>
     <t>GSM1887952</t>
   </si>
   <si>
+    <t>GSM1887953</t>
+  </si>
+  <si>
+    <t>GSM1887954</t>
+  </si>
+  <si>
+    <t>GSM1887956</t>
+  </si>
+  <si>
+    <t>GSM1887957</t>
+  </si>
+  <si>
+    <t>GSM1887958</t>
+  </si>
+  <si>
+    <t>GSM1887938</t>
+  </si>
+  <si>
+    <t>GSM1887933</t>
+  </si>
+  <si>
+    <t>GSM1887921</t>
+  </si>
+  <si>
+    <t>GSM1887931</t>
+  </si>
+  <si>
+    <t>GSM1887888</t>
+  </si>
+  <si>
+    <t>GSM1887895</t>
+  </si>
+  <si>
+    <t>GSM1887897</t>
+  </si>
+  <si>
+    <t>GSM1887898</t>
+  </si>
+  <si>
+    <t>GSM1887899</t>
+  </si>
+  <si>
+    <t>GSM1887900</t>
+  </si>
+  <si>
+    <t>GSM1887907</t>
+  </si>
+  <si>
+    <t>GSM1887908</t>
+  </si>
+  <si>
+    <t>GSM1887909</t>
+  </si>
+  <si>
+    <t>GSM1887910</t>
+  </si>
+  <si>
+    <t>GSM1887911</t>
+  </si>
+  <si>
+    <t>GSM1887913</t>
+  </si>
+  <si>
+    <t>GSM1887914</t>
+  </si>
+  <si>
+    <t>GSM1887915</t>
+  </si>
+  <si>
+    <t>GSM1887918</t>
+  </si>
+  <si>
+    <t>GSM1887920</t>
+  </si>
+  <si>
+    <t>GSM1887923</t>
+  </si>
+  <si>
     <t>GSM1887924</t>
   </si>
   <si>
     <t>GSM1887926</t>
   </si>
   <si>
-    <t>GSM1887958</t>
-  </si>
-  <si>
-    <t>GSM1887931</t>
-  </si>
-  <si>
     <t>GSM1887932</t>
   </si>
   <si>
-    <t>GSM1887933</t>
-  </si>
-  <si>
-    <t>GSM1887957</t>
-  </si>
-  <si>
-    <t>GSM1887956</t>
-  </si>
-  <si>
-    <t>GSM1887938</t>
-  </si>
-  <si>
-    <t>GSM1887954</t>
-  </si>
-  <si>
-    <t>GSM1887923</t>
-  </si>
-  <si>
-    <t>GSM1887953</t>
-  </si>
-  <si>
-    <t>GSM1887950</t>
-  </si>
-  <si>
-    <t>GSM1887887</t>
-  </si>
-  <si>
-    <t>GSM1887921</t>
-  </si>
-  <si>
-    <t>GSM1887920</t>
-  </si>
-  <si>
-    <t>GSM1887888</t>
-  </si>
-  <si>
-    <t>GSM1887895</t>
-  </si>
-  <si>
-    <t>GSM1887897</t>
-  </si>
-  <si>
-    <t>GSM1887898</t>
-  </si>
-  <si>
-    <t>GSM1887899</t>
-  </si>
-  <si>
-    <t>GSM1887900</t>
-  </si>
-  <si>
-    <t>GSM1887907</t>
-  </si>
-  <si>
-    <t>GSM1887908</t>
-  </si>
-  <si>
-    <t>GSM1887909</t>
-  </si>
-  <si>
     <t>GSM1887961</t>
-  </si>
-  <si>
-    <t>GSM1887911</t>
-  </si>
-  <si>
-    <t>GSM1887913</t>
-  </si>
-  <si>
-    <t>GSM1887914</t>
-  </si>
-  <si>
-    <t>GSM1887915</t>
-  </si>
-  <si>
-    <t>GSM1887910</t>
-  </si>
-  <si>
-    <t>GSM1887918</t>
-  </si>
-  <si>
-    <t>GSM1887940</t>
-  </si>
-  <si>
-    <t>GSM1887960</t>
-  </si>
-  <si>
-    <t>GSM1887901</t>
-  </si>
-  <si>
-    <t>GSM1887944</t>
-  </si>
-  <si>
-    <t>GSM1887892</t>
-  </si>
-  <si>
-    <t>GSM1887916</t>
-  </si>
-  <si>
-    <t>GSM1887925</t>
-  </si>
-  <si>
-    <t>GSM1887893</t>
-  </si>
-  <si>
-    <t>GSM1887919</t>
-  </si>
-  <si>
-    <t>GSM1887934</t>
-  </si>
-  <si>
-    <t>GSM1887947</t>
-  </si>
-  <si>
-    <t>GSM1887945</t>
-  </si>
-  <si>
-    <t>GSM1887890</t>
-  </si>
-  <si>
-    <t>GSM1887894</t>
-  </si>
-  <si>
-    <t>GSM1887927</t>
   </si>
 </sst>
 </file>
@@ -606,16 +606,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-1.851913758718402</v>
+        <v>-1.897744418081794</v>
       </c>
       <c r="C2">
-        <v>-0.8540615766856371</v>
+        <v>-0.8798632390857709</v>
       </c>
       <c r="D2">
-        <v>3.450299105469743</v>
+        <v>1.093202537140569</v>
       </c>
       <c r="E2">
-        <v>-0.08543438105726334</v>
+        <v>4.485918826913561</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-1.946154929580057</v>
+        <v>-1.94470995154462</v>
       </c>
       <c r="C3">
-        <v>-0.7640342701227588</v>
+        <v>-0.3466578441819482</v>
       </c>
       <c r="D3">
-        <v>2.804005987292767</v>
+        <v>-0.6085959862169092</v>
       </c>
       <c r="E3">
-        <v>-0.3247046513593322</v>
+        <v>4.524792047930206</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-1.90163762089788</v>
+        <v>-1.711277627172249</v>
       </c>
       <c r="C4">
-        <v>0.1874739604975412</v>
+        <v>-0.9846906826932859</v>
       </c>
       <c r="D4">
-        <v>2.353930377450877</v>
+        <v>1.135024797227976</v>
       </c>
       <c r="E4">
-        <v>0.06544531980116744</v>
+        <v>3.989694601166632</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-1.972577865134044</v>
+        <v>0.7270647291087581</v>
       </c>
       <c r="C5">
-        <v>-0.8263774557813719</v>
+        <v>1.380240270681588</v>
       </c>
       <c r="D5">
-        <v>2.823980774629415</v>
+        <v>-0.8687562902420772</v>
       </c>
       <c r="E5">
-        <v>-0.4074247667511138</v>
+        <v>-0.6723504142033453</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -686,19 +686,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-1.628687108998109</v>
+        <v>0.6577887592211955</v>
       </c>
       <c r="C6">
-        <v>-0.7653398129289055</v>
+        <v>0.4699873527520411</v>
       </c>
       <c r="D6">
-        <v>2.932780683330579</v>
+        <v>-0.320835773088561</v>
       </c>
       <c r="E6">
-        <v>0.3827943057340199</v>
+        <v>-0.4249196185401221</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -706,16 +706,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.5098602900601813</v>
+        <v>0.6075326748091999</v>
       </c>
       <c r="C7">
-        <v>0.5569913257647857</v>
+        <v>1.987096098815455</v>
       </c>
       <c r="D7">
-        <v>-0.6077026558591104</v>
+        <v>-0.5023248301259924</v>
       </c>
       <c r="E7">
-        <v>-0.3014438687524224</v>
+        <v>-0.1328235008837253</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.6577887592211955</v>
+        <v>0.6436384211226583</v>
       </c>
       <c r="C8">
-        <v>0.4699873527520411</v>
+        <v>0.3239384145856562</v>
       </c>
       <c r="D8">
-        <v>-0.320835773088561</v>
+        <v>-0.6668426416800832</v>
       </c>
       <c r="E8">
-        <v>-0.4249196185401221</v>
+        <v>-0.4249485921144855</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.444887799421312</v>
+        <v>0.5001695980555138</v>
       </c>
       <c r="C9">
-        <v>0.3839142121393866</v>
+        <v>1.086863955097763</v>
       </c>
       <c r="D9">
-        <v>-0.5893345819501836</v>
+        <v>-0.6584834928748019</v>
       </c>
       <c r="E9">
-        <v>-0.2637576057262638</v>
+        <v>-0.1857925792260189</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -766,16 +766,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.6436384211226583</v>
+        <v>0.444887799421312</v>
       </c>
       <c r="C10">
-        <v>0.3239384145856562</v>
+        <v>0.3839142121393866</v>
       </c>
       <c r="D10">
-        <v>-0.6668426416800832</v>
+        <v>-0.5893345819501836</v>
       </c>
       <c r="E10">
-        <v>-0.4249485921144855</v>
+        <v>-0.2637576057262638</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -786,16 +786,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.6075326748091999</v>
+        <v>0.7227145818555353</v>
       </c>
       <c r="C11">
-        <v>1.987096098815455</v>
+        <v>0.81432827168878</v>
       </c>
       <c r="D11">
-        <v>-0.5023248301259924</v>
+        <v>0.3295606295908765</v>
       </c>
       <c r="E11">
-        <v>-0.1328235008837253</v>
+        <v>-0.1335033477332783</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -806,16 +806,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.5001695980555138</v>
+        <v>0.6023673053125083</v>
       </c>
       <c r="C12">
-        <v>1.086863955097763</v>
+        <v>0.8826529792185788</v>
       </c>
       <c r="D12">
-        <v>-0.6584834928748019</v>
+        <v>0.1541582302998628</v>
       </c>
       <c r="E12">
-        <v>-0.1857925792260189</v>
+        <v>-0.09101916334419789</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -826,16 +826,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.6023673053125083</v>
+        <v>0.5098602900601813</v>
       </c>
       <c r="C13">
-        <v>0.8826529792185788</v>
+        <v>0.5569913257647857</v>
       </c>
       <c r="D13">
-        <v>0.1541582302998628</v>
+        <v>-0.6077026558591104</v>
       </c>
       <c r="E13">
-        <v>-0.09101916334419789</v>
+        <v>-0.3014438687524224</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -846,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.7270647291087581</v>
+        <v>0.2970844105403733</v>
       </c>
       <c r="C14">
-        <v>1.380240270681588</v>
+        <v>1.305615629298728</v>
       </c>
       <c r="D14">
-        <v>-0.8687562902420772</v>
+        <v>-0.4956706090115757</v>
       </c>
       <c r="E14">
-        <v>-0.6723504142033453</v>
+        <v>-0.5404891388128865</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -886,19 +886,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.7227145818555353</v>
+        <v>0.2817737197062413</v>
       </c>
       <c r="C16">
-        <v>0.81432827168878</v>
+        <v>-0.7380216314886473</v>
       </c>
       <c r="D16">
-        <v>0.3295606295908765</v>
+        <v>0.8941774063916671</v>
       </c>
       <c r="E16">
-        <v>-0.1335033477332783</v>
+        <v>-0.1509111211466726</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,19 +906,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.2970844105403733</v>
+        <v>0.7146636418676697</v>
       </c>
       <c r="C17">
-        <v>1.305615629298728</v>
+        <v>-0.8123867881381542</v>
       </c>
       <c r="D17">
-        <v>-0.4956706090115757</v>
+        <v>1.276821030449093</v>
       </c>
       <c r="E17">
-        <v>-0.5404891388128865</v>
+        <v>0.1545942840699235</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,16 +926,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.5695957034389889</v>
+        <v>0.2770064768038681</v>
       </c>
       <c r="C18">
-        <v>-0.09951460752086679</v>
+        <v>-0.7134432924123028</v>
       </c>
       <c r="D18">
-        <v>0.03232318074732581</v>
+        <v>1.5483599666032</v>
       </c>
       <c r="E18">
-        <v>0.1574775369453393</v>
+        <v>0.8524355449898712</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -946,16 +946,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.7747111788681127</v>
+        <v>0.4209186349698179</v>
       </c>
       <c r="C19">
-        <v>-0.1320501940346758</v>
+        <v>-1.044084662799273</v>
       </c>
       <c r="D19">
-        <v>-0.7524488734922037</v>
+        <v>0.5885890558220019</v>
       </c>
       <c r="E19">
-        <v>-0.4421525735160421</v>
+        <v>-0.3147333836417959</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -966,19 +966,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.596984069556232</v>
+        <v>-1.628687108998109</v>
       </c>
       <c r="C20">
-        <v>-0.7345958075342132</v>
+        <v>-0.7653398129289055</v>
       </c>
       <c r="D20">
-        <v>-0.372602384824696</v>
+        <v>2.932780683330579</v>
       </c>
       <c r="E20">
-        <v>-0.4130128112490948</v>
+        <v>0.3827943057340199</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,19 +986,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.6971351062654433</v>
+        <v>-1.972577865134044</v>
       </c>
       <c r="C21">
-        <v>-0.8854762431184467</v>
+        <v>-0.8263774557813719</v>
       </c>
       <c r="D21">
-        <v>-0.7484033287574562</v>
+        <v>2.823980774629415</v>
       </c>
       <c r="E21">
-        <v>-0.2915105726503249</v>
+        <v>-0.4074247667511138</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,19 +1006,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.6966284891584287</v>
+        <v>-1.851913758718402</v>
       </c>
       <c r="C22">
-        <v>-0.7365721503890708</v>
+        <v>-0.8540615766856371</v>
       </c>
       <c r="D22">
-        <v>-0.6089480351469384</v>
+        <v>3.450299105469743</v>
       </c>
       <c r="E22">
-        <v>-0.574581357532489</v>
+        <v>-0.08543438105726334</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,19 +1026,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.5133600657505656</v>
+        <v>-1.90163762089788</v>
       </c>
       <c r="C23">
-        <v>-0.7586477538630382</v>
+        <v>0.1874739604975412</v>
       </c>
       <c r="D23">
-        <v>0.1703442208125448</v>
+        <v>2.353930377450877</v>
       </c>
       <c r="E23">
-        <v>-0.5300308533446469</v>
+        <v>0.06544531980116744</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,19 +1046,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.6906158865353365</v>
+        <v>-1.946154929580057</v>
       </c>
       <c r="C24">
-        <v>-0.1171292001356103</v>
+        <v>-0.7640342701227588</v>
       </c>
       <c r="D24">
-        <v>-0.7398866428617497</v>
+        <v>2.804005987292767</v>
       </c>
       <c r="E24">
-        <v>-0.4082507786452135</v>
+        <v>-0.3247046513593322</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,19 +1066,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.7529659284972204</v>
+        <v>-1.354106338101068</v>
       </c>
       <c r="C25">
-        <v>-0.4618322055351163</v>
+        <v>1.873071535067223</v>
       </c>
       <c r="D25">
-        <v>-0.3224447390270981</v>
+        <v>0.5927117723071512</v>
       </c>
       <c r="E25">
-        <v>0.2595107249645087</v>
+        <v>0.1626357436935193</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,19 +1086,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.5724859633246696</v>
+        <v>-1.602112737303525</v>
       </c>
       <c r="C26">
-        <v>-0.1716049144383366</v>
+        <v>1.79581113945633</v>
       </c>
       <c r="D26">
-        <v>-0.42847900435856</v>
+        <v>0.1010521152125357</v>
       </c>
       <c r="E26">
-        <v>0.0607885810183898</v>
+        <v>0.1069179119802234</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,19 +1106,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.5565260466221906</v>
+        <v>-1.803589694931635</v>
       </c>
       <c r="C27">
-        <v>0.08731393600768693</v>
+        <v>1.968167366591645</v>
       </c>
       <c r="D27">
-        <v>-0.5379038155691539</v>
+        <v>-0.5930076599669289</v>
       </c>
       <c r="E27">
-        <v>-0.0007350494166956392</v>
+        <v>-0.3293148763130814</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,19 +1126,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.64204159499525</v>
+        <v>-0.5946265863822241</v>
       </c>
       <c r="C28">
-        <v>-0.9477166133130132</v>
+        <v>1.980276622711552</v>
       </c>
       <c r="D28">
-        <v>-0.2188275020228949</v>
+        <v>-0.7367940276056366</v>
       </c>
       <c r="E28">
-        <v>-0.05392415226865437</v>
+        <v>-0.3392795889292674</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,19 +1146,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.480678172432188</v>
+        <v>-1.406998820934261</v>
       </c>
       <c r="C29">
-        <v>-0.5592889306951487</v>
+        <v>1.826354033103322</v>
       </c>
       <c r="D29">
-        <v>0.03950176998902484</v>
+        <v>-0.7992346839387285</v>
       </c>
       <c r="E29">
-        <v>0.07295966354727702</v>
+        <v>-0.1501054902891649</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,19 +1166,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.5465612406075484</v>
+        <v>-1.851448439500472</v>
       </c>
       <c r="C30">
-        <v>-0.5238910779508205</v>
+        <v>2.13101917135749</v>
       </c>
       <c r="D30">
-        <v>-0.2920726235599272</v>
+        <v>-0.7328543641254208</v>
       </c>
       <c r="E30">
-        <v>-0.2180228885362395</v>
+        <v>-0.4127906932267495</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,19 +1186,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.2882751716788878</v>
+        <v>-1.875423263332928</v>
       </c>
       <c r="C31">
-        <v>-0.05329208561761915</v>
+        <v>1.88174325104065</v>
       </c>
       <c r="D31">
-        <v>-0.4130623243534084</v>
+        <v>-0.5615193554478886</v>
       </c>
       <c r="E31">
-        <v>-0.2559258787103627</v>
+        <v>-0.3185109491839274</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,19 +1206,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.6096667286393099</v>
+        <v>-1.625081111000747</v>
       </c>
       <c r="C32">
-        <v>-0.6197345036380478</v>
+        <v>1.805248857226108</v>
       </c>
       <c r="D32">
-        <v>-0.9951064487000713</v>
+        <v>-0.2507153062270929</v>
       </c>
       <c r="E32">
-        <v>-0.5922108281007167</v>
+        <v>-0.05518968717826619</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1226,19 +1226,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.6909761059468151</v>
+        <v>0.6096667286393099</v>
       </c>
       <c r="C33">
-        <v>-0.8725831785502633</v>
+        <v>-0.6197345036380478</v>
       </c>
       <c r="D33">
-        <v>-0.4196514404123409</v>
+        <v>-0.9951064487000713</v>
       </c>
       <c r="E33">
-        <v>-0.0368888475557251</v>
+        <v>-0.5922108281007167</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1246,19 +1246,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.6454463818470344</v>
+        <v>-0.2882751716788878</v>
       </c>
       <c r="C34">
-        <v>-0.8654514496602087</v>
+        <v>-0.05329208561761915</v>
       </c>
       <c r="D34">
-        <v>-0.2207361150857761</v>
+        <v>-0.4130623243534084</v>
       </c>
       <c r="E34">
-        <v>-0.006927069875821121</v>
+        <v>-0.2559258787103627</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1266,19 +1266,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.5560166766899782</v>
+        <v>0.5695957034389889</v>
       </c>
       <c r="C35">
-        <v>-0.6894729045275912</v>
+        <v>-0.09951460752086679</v>
       </c>
       <c r="D35">
-        <v>-0.1411475818386073</v>
+        <v>0.03232318074732581</v>
       </c>
       <c r="E35">
-        <v>-0.1809357030484133</v>
+        <v>0.1574775369453393</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1286,19 +1286,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.6765961218895095</v>
+        <v>0.5465612406075484</v>
       </c>
       <c r="C36">
-        <v>-0.9813815957748548</v>
+        <v>-0.5238910779508205</v>
       </c>
       <c r="D36">
-        <v>-0.6622056389000865</v>
+        <v>-0.2920726235599272</v>
       </c>
       <c r="E36">
-        <v>-0.5120682248236497</v>
+        <v>-0.2180228885362395</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1306,19 +1306,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.6232946272365356</v>
+        <v>0.64204159499525</v>
       </c>
       <c r="C37">
-        <v>-0.8195415536581504</v>
+        <v>-0.9477166133130132</v>
       </c>
       <c r="D37">
-        <v>-0.6005307806085749</v>
+        <v>-0.2188275020228949</v>
       </c>
       <c r="E37">
-        <v>-0.4880388432300251</v>
+        <v>-0.05392415226865437</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1326,19 +1326,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.8288425456584497</v>
+        <v>0.5724859633246696</v>
       </c>
       <c r="C38">
-        <v>-0.1856550090483363</v>
+        <v>-0.1716049144383366</v>
       </c>
       <c r="D38">
-        <v>-0.4629705166906843</v>
+        <v>-0.42847900435856</v>
       </c>
       <c r="E38">
-        <v>-0.4448368970596589</v>
+        <v>0.0607885810183898</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.3204283955133752</v>
+        <v>0.7529659284972204</v>
       </c>
       <c r="C39">
-        <v>-0.6879727307697098</v>
+        <v>-0.4618322055351163</v>
       </c>
       <c r="D39">
-        <v>-0.4692299096909349</v>
+        <v>-0.3224447390270981</v>
       </c>
       <c r="E39">
-        <v>-0.3754640178887962</v>
+        <v>0.2595107249645087</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1366,19 +1366,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.5470197142161023</v>
+        <v>0.6971351062654433</v>
       </c>
       <c r="C40">
-        <v>-0.9530191646966555</v>
+        <v>-0.8854762431184467</v>
       </c>
       <c r="D40">
-        <v>-0.3678961427999044</v>
+        <v>-0.7484033287574562</v>
       </c>
       <c r="E40">
-        <v>-0.618363508529384</v>
+        <v>-0.2915105726503249</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1386,19 +1386,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.3042088459193402</v>
+        <v>0.5565260466221906</v>
       </c>
       <c r="C41">
-        <v>-0.7635402201594512</v>
+        <v>0.08731393600768693</v>
       </c>
       <c r="D41">
-        <v>-0.8186528262231326</v>
+        <v>-0.5379038155691539</v>
       </c>
       <c r="E41">
-        <v>-0.5064643321998888</v>
+        <v>-0.0007350494166956392</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1406,19 +1406,19 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.7398105879162655</v>
+        <v>0.6906158865353365</v>
       </c>
       <c r="C42">
-        <v>0.1183768785314991</v>
+        <v>-0.1171292001356103</v>
       </c>
       <c r="D42">
-        <v>-0.6652159750812754</v>
+        <v>-0.7398866428617497</v>
       </c>
       <c r="E42">
-        <v>-0.4755507193049904</v>
+        <v>-0.4082507786452135</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1426,19 +1426,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.6287045473690167</v>
+        <v>0.6909761059468151</v>
       </c>
       <c r="C43">
-        <v>-0.2236986688924052</v>
+        <v>-0.8725831785502633</v>
       </c>
       <c r="D43">
-        <v>-0.3775722050509466</v>
+        <v>-0.4196514404123409</v>
       </c>
       <c r="E43">
-        <v>-0.5071322529223485</v>
+        <v>-0.0368888475557251</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1446,19 +1446,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.7000681565116115</v>
+        <v>0.6966284891584287</v>
       </c>
       <c r="C44">
-        <v>-0.7785083364388391</v>
+        <v>-0.7365721503890708</v>
       </c>
       <c r="D44">
-        <v>-0.3820488827249526</v>
+        <v>-0.6089480351469384</v>
       </c>
       <c r="E44">
-        <v>-0.4079171438996679</v>
+        <v>-0.574581357532489</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1466,19 +1466,19 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.6059500070163213</v>
+        <v>0.5560166766899782</v>
       </c>
       <c r="C45">
-        <v>-0.6820535714962086</v>
+        <v>-0.6894729045275912</v>
       </c>
       <c r="D45">
-        <v>0.1476221218704816</v>
+        <v>-0.1411475818386073</v>
       </c>
       <c r="E45">
-        <v>-0.04949681877325363</v>
+        <v>-0.1809357030484133</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1486,19 +1486,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.6234607107680836</v>
+        <v>0.6765961218895095</v>
       </c>
       <c r="C46">
-        <v>-0.7972765857878937</v>
+        <v>-0.9813815957748548</v>
       </c>
       <c r="D46">
-        <v>-0.7166136667762866</v>
+        <v>-0.6622056389000865</v>
       </c>
       <c r="E46">
-        <v>-0.3631027792553921</v>
+        <v>-0.5120682248236497</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1506,19 +1506,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.6293092373977991</v>
+        <v>0.6232946272365356</v>
       </c>
       <c r="C47">
-        <v>-0.5295645328484345</v>
+        <v>-0.8195415536581504</v>
       </c>
       <c r="D47">
-        <v>-0.01539312964427114</v>
+        <v>-0.6005307806085749</v>
       </c>
       <c r="E47">
-        <v>0.1154056846740409</v>
+        <v>-0.4880388432300251</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1526,19 +1526,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.6245616842401568</v>
+        <v>0.8288425456584497</v>
       </c>
       <c r="C48">
-        <v>-0.7662100485152271</v>
+        <v>-0.1856550090483363</v>
       </c>
       <c r="D48">
-        <v>-0.1591760451604213</v>
+        <v>-0.4629705166906843</v>
       </c>
       <c r="E48">
-        <v>0.03543404162968602</v>
+        <v>-0.4448368970596589</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1546,19 +1546,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.5384744277220965</v>
+        <v>0.3204283955133752</v>
       </c>
       <c r="C49">
-        <v>-0.3395145696810564</v>
+        <v>-0.6879727307697098</v>
       </c>
       <c r="D49">
-        <v>-0.5441364457218305</v>
+        <v>-0.4692299096909349</v>
       </c>
       <c r="E49">
-        <v>-0.32040524669263</v>
+        <v>-0.3754640178887962</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1566,19 +1566,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.3871485647795053</v>
+        <v>0.5470197142161023</v>
       </c>
       <c r="C50">
-        <v>-0.2522210706991795</v>
+        <v>-0.9530191646966555</v>
       </c>
       <c r="D50">
-        <v>-0.3556469828489635</v>
+        <v>-0.3678961427999044</v>
       </c>
       <c r="E50">
-        <v>-0.0302481395836165</v>
+        <v>-0.618363508529384</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1586,19 +1586,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-1.354106338101068</v>
+        <v>0.3042088459193402</v>
       </c>
       <c r="C51">
-        <v>1.873071535067223</v>
+        <v>-0.7635402201594512</v>
       </c>
       <c r="D51">
-        <v>0.5927117723071512</v>
+        <v>-0.8186528262231326</v>
       </c>
       <c r="E51">
-        <v>0.1626357436935193</v>
+        <v>-0.5064643321998888</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1606,19 +1606,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-1.803589694931635</v>
+        <v>0.7398105879162655</v>
       </c>
       <c r="C52">
-        <v>1.968167366591645</v>
+        <v>0.1183768785314991</v>
       </c>
       <c r="D52">
-        <v>-0.5930076599669289</v>
+        <v>-0.6652159750812754</v>
       </c>
       <c r="E52">
-        <v>-0.3293148763130814</v>
+        <v>-0.4755507193049904</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1626,19 +1626,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.5946265863822241</v>
+        <v>0.6287045473690167</v>
       </c>
       <c r="C53">
-        <v>1.980276622711552</v>
+        <v>-0.2236986688924052</v>
       </c>
       <c r="D53">
-        <v>-0.7367940276056366</v>
+        <v>-0.3775722050509466</v>
       </c>
       <c r="E53">
-        <v>-0.3392795889292674</v>
+        <v>-0.5071322529223485</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1646,19 +1646,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-1.625081111000747</v>
+        <v>0.5384744277220965</v>
       </c>
       <c r="C54">
-        <v>1.805248857226108</v>
+        <v>-0.3395145696810564</v>
       </c>
       <c r="D54">
-        <v>-0.2507153062270929</v>
+        <v>-0.5441364457218305</v>
       </c>
       <c r="E54">
-        <v>-0.05518968717826619</v>
+        <v>-0.32040524669263</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1666,19 +1666,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-1.875423263332928</v>
+        <v>0.6059500070163213</v>
       </c>
       <c r="C55">
-        <v>1.88174325104065</v>
+        <v>-0.6820535714962086</v>
       </c>
       <c r="D55">
-        <v>-0.5615193554478886</v>
+        <v>0.1476221218704816</v>
       </c>
       <c r="E55">
-        <v>-0.3185109491839274</v>
+        <v>-0.04949681877325363</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1686,19 +1686,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-1.602112737303525</v>
+        <v>0.6234607107680836</v>
       </c>
       <c r="C56">
-        <v>1.79581113945633</v>
+        <v>-0.7972765857878937</v>
       </c>
       <c r="D56">
-        <v>0.1010521152125357</v>
+        <v>-0.7166136667762866</v>
       </c>
       <c r="E56">
-        <v>0.1069179119802234</v>
+        <v>-0.3631027792553921</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1706,19 +1706,19 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-1.406998820934261</v>
+        <v>0.6293092373977991</v>
       </c>
       <c r="C57">
-        <v>1.826354033103322</v>
+        <v>-0.5295645328484345</v>
       </c>
       <c r="D57">
-        <v>-0.7992346839387285</v>
+        <v>-0.01539312964427114</v>
       </c>
       <c r="E57">
-        <v>-0.1501054902891649</v>
+        <v>0.1154056846740409</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1726,19 +1726,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-1.851448439500472</v>
+        <v>0.6245616842401568</v>
       </c>
       <c r="C58">
-        <v>2.13101917135749</v>
+        <v>-0.7662100485152271</v>
       </c>
       <c r="D58">
-        <v>-0.7328543641254208</v>
+        <v>-0.1591760451604213</v>
       </c>
       <c r="E58">
-        <v>-0.4127906932267495</v>
+        <v>0.03543404162968602</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1746,19 +1746,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2817737197062413</v>
+        <v>0.3871485647795053</v>
       </c>
       <c r="C59">
-        <v>-0.7380216314886473</v>
+        <v>-0.2522210706991795</v>
       </c>
       <c r="D59">
-        <v>0.8941774063916671</v>
+        <v>-0.3556469828489635</v>
       </c>
       <c r="E59">
-        <v>-0.1509111211466726</v>
+        <v>-0.0302481395836165</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1766,19 +1766,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.4209186349698179</v>
+        <v>0.6454463818470344</v>
       </c>
       <c r="C60">
-        <v>-1.044084662799273</v>
+        <v>-0.8654514496602087</v>
       </c>
       <c r="D60">
-        <v>0.5885890558220019</v>
+        <v>-0.2207361150857761</v>
       </c>
       <c r="E60">
-        <v>-0.3147333836417959</v>
+        <v>-0.006927069875821121</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1786,19 +1786,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.7146636418676697</v>
+        <v>0.480678172432188</v>
       </c>
       <c r="C61">
-        <v>-0.8123867881381542</v>
+        <v>-0.5592889306951487</v>
       </c>
       <c r="D61">
-        <v>1.276821030449093</v>
+        <v>0.03950176998902484</v>
       </c>
       <c r="E61">
-        <v>0.1545942840699235</v>
+        <v>0.07295966354727702</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1806,19 +1806,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.2770064768038681</v>
+        <v>0.7747111788681127</v>
       </c>
       <c r="C62">
-        <v>-0.7134432924123028</v>
+        <v>-0.1320501940346758</v>
       </c>
       <c r="D62">
-        <v>1.5483599666032</v>
+        <v>-0.7524488734922037</v>
       </c>
       <c r="E62">
-        <v>0.8524355449898712</v>
+        <v>-0.4421525735160421</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1826,16 +1826,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-1.897744418081794</v>
+        <v>0.596984069556232</v>
       </c>
       <c r="C63">
-        <v>-0.8798632390857709</v>
+        <v>-0.7345958075342132</v>
       </c>
       <c r="D63">
-        <v>1.093202537140569</v>
+        <v>-0.372602384824696</v>
       </c>
       <c r="E63">
-        <v>4.485918826913561</v>
+        <v>-0.4130128112490948</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -1846,16 +1846,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-1.94470995154462</v>
+        <v>0.5133600657505656</v>
       </c>
       <c r="C64">
-        <v>-0.3466578441819482</v>
+        <v>-0.7586477538630382</v>
       </c>
       <c r="D64">
-        <v>-0.6085959862169092</v>
+        <v>0.1703442208125448</v>
       </c>
       <c r="E64">
-        <v>4.524792047930206</v>
+        <v>-0.5300308533446469</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -1866,16 +1866,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-1.711277627172249</v>
+        <v>0.7000681565116115</v>
       </c>
       <c r="C65">
-        <v>-0.9846906826932859</v>
+        <v>-0.7785083364388391</v>
       </c>
       <c r="D65">
-        <v>1.135024797227976</v>
+        <v>-0.3820488827249526</v>
       </c>
       <c r="E65">
-        <v>3.989694601166632</v>
+        <v>-0.4079171438996679</v>
       </c>
       <c r="F65">
         <v>5</v>
